--- a/data/pca/factorExposure/factorExposure_2017-01-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.006952672266372486</v>
+        <v>0.01180163430367475</v>
       </c>
       <c r="C2">
-        <v>-0.009030265729110417</v>
+        <v>0.03901925045090468</v>
       </c>
       <c r="D2">
-        <v>-0.03923114878098333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03203905814139841</v>
+      </c>
+      <c r="E2">
+        <v>-0.05357118604814468</v>
+      </c>
+      <c r="F2">
+        <v>-0.009119376695978241</v>
+      </c>
+      <c r="G2">
+        <v>-0.1045522914136638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.050051489893393</v>
+        <v>0.03852732398014801</v>
       </c>
       <c r="C3">
-        <v>-0.08239403878429213</v>
+        <v>0.09269850260476387</v>
       </c>
       <c r="D3">
-        <v>-0.07193747384818613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01886166026550015</v>
+      </c>
+      <c r="E3">
+        <v>-0.1050207184207452</v>
+      </c>
+      <c r="F3">
+        <v>-0.01964240866554303</v>
+      </c>
+      <c r="G3">
+        <v>-0.132750378972915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04897990638831577</v>
+        <v>0.05454429304457828</v>
       </c>
       <c r="C4">
-        <v>-0.04074811019633849</v>
+        <v>0.06328089134741999</v>
       </c>
       <c r="D4">
-        <v>-0.0532143943092207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02649724764273833</v>
+      </c>
+      <c r="E4">
+        <v>-0.05029067670638798</v>
+      </c>
+      <c r="F4">
+        <v>-0.003812460542256956</v>
+      </c>
+      <c r="G4">
+        <v>-0.1023296421220442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01805401894418004</v>
+        <v>0.03242724731081294</v>
       </c>
       <c r="C6">
-        <v>-0.03496225982839492</v>
+        <v>0.04643469941130108</v>
       </c>
       <c r="D6">
-        <v>-0.04543508812655202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01915399586419349</v>
+      </c>
+      <c r="E6">
+        <v>-0.05471566791952467</v>
+      </c>
+      <c r="F6">
+        <v>-0.005434166078992895</v>
+      </c>
+      <c r="G6">
+        <v>-0.08423587045809053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01018634819971132</v>
+        <v>0.01967665667646867</v>
       </c>
       <c r="C7">
-        <v>-0.02066404433398441</v>
+        <v>0.03524193639554234</v>
       </c>
       <c r="D7">
-        <v>-0.03154621902132018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01538856372897248</v>
+      </c>
+      <c r="E7">
+        <v>-0.02555590964226186</v>
+      </c>
+      <c r="F7">
+        <v>0.004534727817301966</v>
+      </c>
+      <c r="G7">
+        <v>-0.1259407991589397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0004448442327471906</v>
+        <v>0.003560712715593009</v>
       </c>
       <c r="C8">
-        <v>-0.0002958562346298639</v>
+        <v>0.01963503507964452</v>
       </c>
       <c r="D8">
-        <v>-0.0009436642260510841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0044715569460109</v>
+      </c>
+      <c r="E8">
+        <v>-0.03680144667355297</v>
+      </c>
+      <c r="F8">
+        <v>-0.002069302780244591</v>
+      </c>
+      <c r="G8">
+        <v>-0.06883754048663263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02174063617548056</v>
+        <v>0.03274754943114971</v>
       </c>
       <c r="C9">
-        <v>-0.02530218518717991</v>
+        <v>0.04525679365253524</v>
       </c>
       <c r="D9">
-        <v>-0.03537448960609316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01731287234444492</v>
+      </c>
+      <c r="E9">
+        <v>-0.03505889229812042</v>
+      </c>
+      <c r="F9">
+        <v>0.0006227429769133828</v>
+      </c>
+      <c r="G9">
+        <v>-0.1012584339025271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1123182187265161</v>
+        <v>0.09660281854013117</v>
       </c>
       <c r="C10">
-        <v>0.1191205175475223</v>
+        <v>-0.1901717323147724</v>
       </c>
       <c r="D10">
-        <v>0.1381381729047148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01555534294780227</v>
+      </c>
+      <c r="E10">
+        <v>-0.0163835256888854</v>
+      </c>
+      <c r="F10">
+        <v>-0.02298926048295254</v>
+      </c>
+      <c r="G10">
+        <v>-0.0494929687127867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02875895489239192</v>
+        <v>0.0357400939117703</v>
       </c>
       <c r="C11">
-        <v>-0.04540881100544232</v>
+        <v>0.05195304459907763</v>
       </c>
       <c r="D11">
-        <v>-0.0332778960212184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003023773224707386</v>
+      </c>
+      <c r="E11">
+        <v>-0.02648194573251967</v>
+      </c>
+      <c r="F11">
+        <v>0.01572810856923101</v>
+      </c>
+      <c r="G11">
+        <v>-0.08172581093224404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02773922821473898</v>
+        <v>0.03765528536724328</v>
       </c>
       <c r="C12">
-        <v>-0.03542964042476566</v>
+        <v>0.04613680154439383</v>
       </c>
       <c r="D12">
-        <v>-0.03152499002487415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006931112218778552</v>
+      </c>
+      <c r="E12">
+        <v>-0.01537327658366239</v>
+      </c>
+      <c r="F12">
+        <v>0.003401734064302734</v>
+      </c>
+      <c r="G12">
+        <v>-0.07795060539276902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.00638330820385103</v>
+        <v>0.01121261364461928</v>
       </c>
       <c r="C13">
-        <v>-0.00862302932415366</v>
+        <v>0.03420596047874917</v>
       </c>
       <c r="D13">
-        <v>-0.03553069623667371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02936429334039681</v>
+      </c>
+      <c r="E13">
+        <v>-0.05954890372914652</v>
+      </c>
+      <c r="F13">
+        <v>-0.01532660737098067</v>
+      </c>
+      <c r="G13">
+        <v>-0.1421973588876809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001136085583549099</v>
+        <v>0.009045955289418364</v>
       </c>
       <c r="C14">
-        <v>-0.01192116155955447</v>
+        <v>0.02512372123904578</v>
       </c>
       <c r="D14">
-        <v>-0.02012229742763006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01146497251963381</v>
+      </c>
+      <c r="E14">
+        <v>-0.01970254717653363</v>
+      </c>
+      <c r="F14">
+        <v>-0.005950125669366062</v>
+      </c>
+      <c r="G14">
+        <v>-0.1168630925217095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02433638218743405</v>
+        <v>0.03386414993784265</v>
       </c>
       <c r="C16">
-        <v>-0.03133077747971036</v>
+        <v>0.04449403119229518</v>
       </c>
       <c r="D16">
-        <v>-0.02205776961899261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002457774420929259</v>
+      </c>
+      <c r="E16">
+        <v>-0.02166601664293438</v>
+      </c>
+      <c r="F16">
+        <v>-0.003301752928166101</v>
+      </c>
+      <c r="G16">
+        <v>-0.08490657909499959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02092057091576586</v>
+        <v>0.01767816772622705</v>
       </c>
       <c r="C19">
-        <v>-0.03197039897621632</v>
+        <v>0.04566329868089191</v>
       </c>
       <c r="D19">
-        <v>-0.03998234074716936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02242694182885526</v>
+      </c>
+      <c r="E19">
+        <v>-0.09739434607368309</v>
+      </c>
+      <c r="F19">
+        <v>-0.009193601302145872</v>
+      </c>
+      <c r="G19">
+        <v>-0.137579262463237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006603811904940595</v>
+        <v>0.01449163979229402</v>
       </c>
       <c r="C20">
-        <v>-0.02007081425605258</v>
+        <v>0.03695579052025501</v>
       </c>
       <c r="D20">
-        <v>-0.03033371251316923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01576511727195148</v>
+      </c>
+      <c r="E20">
+        <v>-0.04627833334614077</v>
+      </c>
+      <c r="F20">
+        <v>-0.02467129372027477</v>
+      </c>
+      <c r="G20">
+        <v>-0.1106845466582631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001106734643273373</v>
+        <v>0.006432087560488459</v>
       </c>
       <c r="C21">
-        <v>-0.01051324930241364</v>
+        <v>0.02993475895538925</v>
       </c>
       <c r="D21">
-        <v>-0.02769584202728035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0217948690183424</v>
+      </c>
+      <c r="E21">
+        <v>-0.06477291023247274</v>
+      </c>
+      <c r="F21">
+        <v>-0.01345627725723596</v>
+      </c>
+      <c r="G21">
+        <v>-0.1535603373842366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001302944836078839</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.005423705630944447</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002524757343021473</v>
+      </c>
+      <c r="E22">
+        <v>-0.01944123297828113</v>
+      </c>
+      <c r="F22">
+        <v>0.003883504723845051</v>
+      </c>
+      <c r="G22">
+        <v>-0.003798538019039284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001278664242476812</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005333376780548847</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002510733217696739</v>
+      </c>
+      <c r="E23">
+        <v>-0.01936132416989804</v>
+      </c>
+      <c r="F23">
+        <v>0.003631279154363521</v>
+      </c>
+      <c r="G23">
+        <v>-0.003659651868395038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01917368143666792</v>
+        <v>0.02993405500605493</v>
       </c>
       <c r="C24">
-        <v>-0.03351088503006119</v>
+        <v>0.04889405024161414</v>
       </c>
       <c r="D24">
-        <v>-0.03132224867859803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.00764233582245897</v>
+      </c>
+      <c r="E24">
+        <v>-0.02052534659652575</v>
+      </c>
+      <c r="F24">
+        <v>0.00628755339652331</v>
+      </c>
+      <c r="G24">
+        <v>-0.08472554037616023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03621510823660529</v>
+        <v>0.04299852854546236</v>
       </c>
       <c r="C25">
-        <v>-0.04122325990478601</v>
+        <v>0.05615498058907289</v>
       </c>
       <c r="D25">
-        <v>-0.04098009859464102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01171891480155789</v>
+      </c>
+      <c r="E25">
+        <v>-0.01326754449593674</v>
+      </c>
+      <c r="F25">
+        <v>0.005974469511752637</v>
+      </c>
+      <c r="G25">
+        <v>-0.09221388110957618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004589210206256533</v>
+        <v>0.01474223522528481</v>
       </c>
       <c r="C26">
-        <v>0.01154710754302426</v>
+        <v>0.008816015081220241</v>
       </c>
       <c r="D26">
-        <v>-0.01812672246806465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02446742392890742</v>
+      </c>
+      <c r="E26">
+        <v>-0.01508944579821049</v>
+      </c>
+      <c r="F26">
+        <v>-0.006088625410054245</v>
+      </c>
+      <c r="G26">
+        <v>-0.08573485035006934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1407579475543682</v>
+        <v>0.1269442828908275</v>
       </c>
       <c r="C28">
-        <v>0.1449309351297333</v>
+        <v>-0.244409656579245</v>
       </c>
       <c r="D28">
-        <v>0.1498009469095312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007180235302465921</v>
+      </c>
+      <c r="E28">
+        <v>0.003800148810781134</v>
+      </c>
+      <c r="F28">
+        <v>-0.02213832275366993</v>
+      </c>
+      <c r="G28">
+        <v>-0.04402252419801116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006764230651096706</v>
+        <v>0.008045597680040787</v>
       </c>
       <c r="C29">
-        <v>-0.009526442017514415</v>
+        <v>0.02104709942859661</v>
       </c>
       <c r="D29">
-        <v>-0.01614274381182598</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01026801068038326</v>
+      </c>
+      <c r="E29">
+        <v>-0.01230431339598163</v>
+      </c>
+      <c r="F29">
+        <v>-0.01011260971364012</v>
+      </c>
+      <c r="G29">
+        <v>-0.1063747636833412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02889339080990246</v>
+        <v>0.03869684064434623</v>
       </c>
       <c r="C30">
-        <v>-0.04888697465826831</v>
+        <v>0.06295907393444818</v>
       </c>
       <c r="D30">
-        <v>-0.06797215623198916</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03137135215928342</v>
+      </c>
+      <c r="E30">
+        <v>-0.07755219667389182</v>
+      </c>
+      <c r="F30">
+        <v>0.01821040516649518</v>
+      </c>
+      <c r="G30">
+        <v>-0.1229210521056926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03215882992881641</v>
+        <v>0.05323417323399419</v>
       </c>
       <c r="C31">
-        <v>-0.01414080972511979</v>
+        <v>0.03713123437575749</v>
       </c>
       <c r="D31">
-        <v>-0.01069732579216475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004176972386965122</v>
+      </c>
+      <c r="E31">
+        <v>-0.0007776685640243445</v>
+      </c>
+      <c r="F31">
+        <v>-0.03467694469861432</v>
+      </c>
+      <c r="G31">
+        <v>-0.09749938159211555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002056738053633464</v>
+        <v>0.001714900869096937</v>
       </c>
       <c r="C32">
-        <v>-0.0261127035093343</v>
+        <v>0.01829907762650462</v>
       </c>
       <c r="D32">
-        <v>-0.01270411481121866</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001286720756306826</v>
+      </c>
+      <c r="E32">
+        <v>-0.05125101843330519</v>
+      </c>
+      <c r="F32">
+        <v>0.02593072980549022</v>
+      </c>
+      <c r="G32">
+        <v>-0.07430883634893197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.020752210840126</v>
+        <v>0.02651671186194911</v>
       </c>
       <c r="C33">
-        <v>-0.03545907933559177</v>
+        <v>0.04605288822363672</v>
       </c>
       <c r="D33">
-        <v>-0.04088680605184888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01798470733698987</v>
+      </c>
+      <c r="E33">
+        <v>-0.06530055513146563</v>
+      </c>
+      <c r="F33">
+        <v>0.005476661394895798</v>
+      </c>
+      <c r="G33">
+        <v>-0.1579162675689575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0408120383719681</v>
+        <v>0.0420140615713368</v>
       </c>
       <c r="C34">
-        <v>-0.05256522190216121</v>
+        <v>0.05948725528671854</v>
       </c>
       <c r="D34">
-        <v>-0.02812684495209831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003996605657894464</v>
+      </c>
+      <c r="E34">
+        <v>-0.01856491680978311</v>
+      </c>
+      <c r="F34">
+        <v>0.01903217138944858</v>
+      </c>
+      <c r="G34">
+        <v>-0.08460957784842256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008551861487372867</v>
+        <v>0.015076956739542</v>
       </c>
       <c r="C36">
-        <v>0.007007598466722978</v>
+        <v>0.005314556142090994</v>
       </c>
       <c r="D36">
-        <v>-0.006380958540944801</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01351713894202446</v>
+      </c>
+      <c r="E36">
+        <v>-0.01848072330215284</v>
+      </c>
+      <c r="F36">
+        <v>-0.007256151651239847</v>
+      </c>
+      <c r="G36">
+        <v>-0.09739036021970203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02569788210238896</v>
+        <v>0.03043894021948145</v>
       </c>
       <c r="C38">
-        <v>-0.023360237319827</v>
+        <v>0.02241755635211612</v>
       </c>
       <c r="D38">
-        <v>-0.00418230513829664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006746972034151225</v>
+      </c>
+      <c r="E38">
+        <v>-0.01574409253103594</v>
+      </c>
+      <c r="F38">
+        <v>-0.01469068612149146</v>
+      </c>
+      <c r="G38">
+        <v>-0.09271774906490246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0196650588256565</v>
+        <v>0.03676602964212985</v>
       </c>
       <c r="C39">
-        <v>-0.06300176282276007</v>
+        <v>0.07609700600036877</v>
       </c>
       <c r="D39">
-        <v>-0.06194117458473126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0130020239947834</v>
+      </c>
+      <c r="E39">
+        <v>-0.03752292027400268</v>
+      </c>
+      <c r="F39">
+        <v>0.01448490740607059</v>
+      </c>
+      <c r="G39">
+        <v>-0.09435364664395525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01486668496314556</v>
+        <v>0.01328121153916327</v>
       </c>
       <c r="C40">
-        <v>-0.0089420266110982</v>
+        <v>0.03328644506582014</v>
       </c>
       <c r="D40">
-        <v>-0.01846676702423214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01600992485526063</v>
+      </c>
+      <c r="E40">
+        <v>-0.03983170956324758</v>
+      </c>
+      <c r="F40">
+        <v>-0.01818698990444621</v>
+      </c>
+      <c r="G40">
+        <v>-0.1184019423394405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01084194883585604</v>
+        <v>0.01898286448222161</v>
       </c>
       <c r="C41">
-        <v>0.006509529339168938</v>
+        <v>-0.001668964518611663</v>
       </c>
       <c r="D41">
-        <v>0.003444503706568298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005521070616289342</v>
+      </c>
+      <c r="E41">
+        <v>-0.01512704175451429</v>
+      </c>
+      <c r="F41">
+        <v>-0.01389901411978088</v>
+      </c>
+      <c r="G41">
+        <v>-0.09270610710768493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006816303523515559</v>
+        <v>0.004844654224647675</v>
       </c>
       <c r="C42">
-        <v>0.01185986400222819</v>
+        <v>0.02854128736127408</v>
       </c>
       <c r="D42">
-        <v>-0.1065522242488473</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08450760586486782</v>
+      </c>
+      <c r="E42">
+        <v>0.006569880003137622</v>
+      </c>
+      <c r="F42">
+        <v>-0.03372605415701473</v>
+      </c>
+      <c r="G42">
+        <v>0.01541933715354658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02547281629585642</v>
+        <v>0.03372701833551171</v>
       </c>
       <c r="C43">
-        <v>-0.003764059790097428</v>
+        <v>0.01241296572141576</v>
       </c>
       <c r="D43">
-        <v>-0.002433669178856161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007044469728213707</v>
+      </c>
+      <c r="E43">
+        <v>-0.03306482959045134</v>
+      </c>
+      <c r="F43">
+        <v>-0.01058393176019178</v>
+      </c>
+      <c r="G43">
+        <v>-0.1216950326362575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01057644435124901</v>
+        <v>0.01330595695751452</v>
       </c>
       <c r="C44">
-        <v>-0.04033720506798632</v>
+        <v>0.05188244790593287</v>
       </c>
       <c r="D44">
-        <v>-0.03646653265206504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.00817639454111862</v>
+      </c>
+      <c r="E44">
+        <v>-0.03764614611544884</v>
+      </c>
+      <c r="F44">
+        <v>-0.01815378995646421</v>
+      </c>
+      <c r="G44">
+        <v>-0.1204970432461025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004114294562573412</v>
+        <v>0.00911501982565904</v>
       </c>
       <c r="C46">
-        <v>0.005434525912546029</v>
+        <v>0.01401349472114912</v>
       </c>
       <c r="D46">
-        <v>-0.009996854984141197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01310180169274483</v>
+      </c>
+      <c r="E46">
+        <v>-0.00364755015994796</v>
+      </c>
+      <c r="F46">
+        <v>-0.01321738339443144</v>
+      </c>
+      <c r="G46">
+        <v>-0.1099453957725789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05454401201454129</v>
+        <v>0.08071279333066481</v>
       </c>
       <c r="C47">
-        <v>-0.05252729938630631</v>
+        <v>0.06845753732743773</v>
       </c>
       <c r="D47">
-        <v>-0.02986059652164912</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004946421283650404</v>
+      </c>
+      <c r="E47">
+        <v>0.006723748792948016</v>
+      </c>
+      <c r="F47">
+        <v>-0.04270664374698192</v>
+      </c>
+      <c r="G47">
+        <v>-0.08756875337738172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.009222741480574947</v>
+        <v>0.01784823025013003</v>
       </c>
       <c r="C48">
-        <v>-0.003708193919541553</v>
+        <v>0.0096078929821875</v>
       </c>
       <c r="D48">
-        <v>-0.002375988650821705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003203999043595943</v>
+      </c>
+      <c r="E48">
+        <v>-0.01342141837628998</v>
+      </c>
+      <c r="F48">
+        <v>-0.01864082759885755</v>
+      </c>
+      <c r="G48">
+        <v>-0.1075275059456065</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.06153664760014929</v>
+        <v>0.07434061843763887</v>
       </c>
       <c r="C50">
-        <v>-0.04842359122440468</v>
+        <v>0.0674468310675666</v>
       </c>
       <c r="D50">
-        <v>-0.02611379013475048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001727709955393457</v>
+      </c>
+      <c r="E50">
+        <v>0.003111560631219244</v>
+      </c>
+      <c r="F50">
+        <v>-0.0442287838068402</v>
+      </c>
+      <c r="G50">
+        <v>-0.1032609014722649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008895185109159962</v>
+        <v>0.01164824139225834</v>
       </c>
       <c r="C51">
-        <v>-0.02170299856452699</v>
+        <v>0.03354528464112012</v>
       </c>
       <c r="D51">
-        <v>-0.02568383813940754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01203844573767503</v>
+      </c>
+      <c r="E51">
+        <v>-0.03873687026658702</v>
+      </c>
+      <c r="F51">
+        <v>0.009691949763900646</v>
+      </c>
+      <c r="G51">
+        <v>-0.1169241433127064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07876340650350752</v>
+        <v>0.08351699720403205</v>
       </c>
       <c r="C53">
-        <v>-0.07131890477493091</v>
+        <v>0.08195392349841091</v>
       </c>
       <c r="D53">
-        <v>-0.042278336765611</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004061533480218028</v>
+      </c>
+      <c r="E53">
+        <v>0.02885880921986813</v>
+      </c>
+      <c r="F53">
+        <v>-0.04871781097803865</v>
+      </c>
+      <c r="G53">
+        <v>-0.09403098368633343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0241653380534482</v>
+        <v>0.0313304187892477</v>
       </c>
       <c r="C54">
-        <v>-0.002062274007347144</v>
+        <v>0.01396179798556125</v>
       </c>
       <c r="D54">
-        <v>0.007030215967829298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0001471005010426584</v>
+      </c>
+      <c r="E54">
+        <v>-0.02552282802227963</v>
+      </c>
+      <c r="F54">
+        <v>-0.009948986787237863</v>
+      </c>
+      <c r="G54">
+        <v>-0.1101403499602382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.05822637850082696</v>
+        <v>0.07632923780202672</v>
       </c>
       <c r="C55">
-        <v>-0.05833801638706367</v>
+        <v>0.06702277739682475</v>
       </c>
       <c r="D55">
-        <v>-0.03438957495318229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005601022185443589</v>
+      </c>
+      <c r="E55">
+        <v>0.02899654055439112</v>
+      </c>
+      <c r="F55">
+        <v>-0.04711985167435207</v>
+      </c>
+      <c r="G55">
+        <v>-0.07087013631906071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1222042721381683</v>
+        <v>0.1385357704357023</v>
       </c>
       <c r="C56">
-        <v>-0.1015450191239768</v>
+        <v>0.1034281949922664</v>
       </c>
       <c r="D56">
-        <v>-0.05141868965866954</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01310492431531904</v>
+      </c>
+      <c r="E56">
+        <v>0.03592314611861028</v>
+      </c>
+      <c r="F56">
+        <v>-0.057528173871866</v>
+      </c>
+      <c r="G56">
+        <v>-0.05714835616829618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01037054574516412</v>
+        <v>0.00384478670113961</v>
       </c>
       <c r="C57">
-        <v>0.005281639381445698</v>
+        <v>0.003668271856932906</v>
       </c>
       <c r="D57">
-        <v>-0.02243680972640361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.022960577690181</v>
+      </c>
+      <c r="E57">
+        <v>-0.02447737206629323</v>
+      </c>
+      <c r="F57">
+        <v>-0.0002678220872104303</v>
+      </c>
+      <c r="G57">
+        <v>-0.01385350863384722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03986636032485565</v>
+        <v>0.03989721918911482</v>
       </c>
       <c r="C58">
-        <v>-0.0544492944073955</v>
+        <v>0.02802992984046494</v>
       </c>
       <c r="D58">
-        <v>-0.03787454939224875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03495043436676212</v>
+      </c>
+      <c r="E58">
+        <v>-0.7632537704235938</v>
+      </c>
+      <c r="F58">
+        <v>-0.5426002814095646</v>
+      </c>
+      <c r="G58">
+        <v>0.2847719595416867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1852111079532303</v>
+        <v>0.1556197494180739</v>
       </c>
       <c r="C59">
-        <v>0.1323453489887571</v>
+        <v>-0.21102614235522</v>
       </c>
       <c r="D59">
-        <v>0.1560559204465928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01093172185091331</v>
+      </c>
+      <c r="E59">
+        <v>-0.02117063825670058</v>
+      </c>
+      <c r="F59">
+        <v>-0.00595042887958143</v>
+      </c>
+      <c r="G59">
+        <v>-0.03300440847330956</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3115779584270424</v>
+        <v>0.2882698022836868</v>
       </c>
       <c r="C60">
-        <v>-0.1345801375444644</v>
+        <v>0.106668834168889</v>
       </c>
       <c r="D60">
-        <v>-0.07048003280970466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01607012470181152</v>
+      </c>
+      <c r="E60">
+        <v>-0.1064520457600372</v>
+      </c>
+      <c r="F60">
+        <v>0.3085055700820702</v>
+      </c>
+      <c r="G60">
+        <v>0.1755499660749196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02291962918972031</v>
+        <v>0.03932444715967055</v>
       </c>
       <c r="C61">
-        <v>-0.05114397050467739</v>
+        <v>0.06264396157067924</v>
       </c>
       <c r="D61">
-        <v>-0.04299802848432351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006854158666186255</v>
+      </c>
+      <c r="E61">
+        <v>-0.0357565408421078</v>
+      </c>
+      <c r="F61">
+        <v>0.009048998766596764</v>
+      </c>
+      <c r="G61">
+        <v>-0.09089728513245821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01018569773588807</v>
+        <v>0.01447270307138037</v>
       </c>
       <c r="C63">
-        <v>-0.01997261984206438</v>
+        <v>0.02732491491452431</v>
       </c>
       <c r="D63">
-        <v>-0.02476719662888997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009182795289420485</v>
+      </c>
+      <c r="E63">
+        <v>-0.01098264590904325</v>
+      </c>
+      <c r="F63">
+        <v>-0.01376256903511171</v>
+      </c>
+      <c r="G63">
+        <v>-0.09453162497879258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04152112978896142</v>
+        <v>0.0498615870797828</v>
       </c>
       <c r="C64">
-        <v>-0.03073528839908173</v>
+        <v>0.04506608063593491</v>
       </c>
       <c r="D64">
-        <v>-0.02433857772418789</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006281771931666414</v>
+      </c>
+      <c r="E64">
+        <v>-0.009773816328450771</v>
+      </c>
+      <c r="F64">
+        <v>0.009138795621244084</v>
+      </c>
+      <c r="G64">
+        <v>-0.09368548082721487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07741241961309546</v>
+        <v>0.07121857533864515</v>
       </c>
       <c r="C65">
-        <v>-0.06736814903889587</v>
+        <v>0.05419584249998496</v>
       </c>
       <c r="D65">
-        <v>-0.06177144819252425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01850160541171256</v>
+      </c>
+      <c r="E65">
+        <v>-0.05843056646537451</v>
+      </c>
+      <c r="F65">
+        <v>0.01014256655820087</v>
+      </c>
+      <c r="G65">
+        <v>-0.04213888271078588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03538651773126249</v>
+        <v>0.04801996093907535</v>
       </c>
       <c r="C66">
-        <v>-0.1007548180789285</v>
+        <v>0.1018277812742814</v>
       </c>
       <c r="D66">
-        <v>-0.09014208592212201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01395956179886517</v>
+      </c>
+      <c r="E66">
+        <v>-0.06208698871598457</v>
+      </c>
+      <c r="F66">
+        <v>0.02362617260681223</v>
+      </c>
+      <c r="G66">
+        <v>-0.1008100918499802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05229682749976981</v>
+        <v>0.05453840033724756</v>
       </c>
       <c r="C67">
-        <v>-0.03207173581102353</v>
+        <v>0.02897513485045794</v>
       </c>
       <c r="D67">
-        <v>-0.01035945706819537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005609139046773226</v>
+      </c>
+      <c r="E67">
+        <v>-0.003562728236376388</v>
+      </c>
+      <c r="F67">
+        <v>-0.009423204645490331</v>
+      </c>
+      <c r="G67">
+        <v>-0.07785544561042146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1640480104253767</v>
+        <v>0.1548973624540533</v>
       </c>
       <c r="C68">
-        <v>0.1862716362548399</v>
+        <v>-0.2722716133288585</v>
       </c>
       <c r="D68">
-        <v>0.1718166825480499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004489130199575031</v>
+      </c>
+      <c r="E68">
+        <v>0.01044174906971702</v>
+      </c>
+      <c r="F68">
+        <v>-0.04677154052960723</v>
+      </c>
+      <c r="G68">
+        <v>-0.01398475152023258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.06291124833751822</v>
+        <v>0.08324514242388989</v>
       </c>
       <c r="C69">
-        <v>-0.05342500648392636</v>
+        <v>0.07109529046174905</v>
       </c>
       <c r="D69">
-        <v>-0.02356791040440403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008835790074166789</v>
+      </c>
+      <c r="E69">
+        <v>0.01699323054732002</v>
+      </c>
+      <c r="F69">
+        <v>-0.02266220642463268</v>
+      </c>
+      <c r="G69">
+        <v>-0.1018136984800857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1584939801853049</v>
+        <v>0.1418409175426775</v>
       </c>
       <c r="C71">
-        <v>0.1423016192780346</v>
+        <v>-0.2333475328536082</v>
       </c>
       <c r="D71">
-        <v>0.1475637145614028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003306344420894584</v>
+      </c>
+      <c r="E71">
+        <v>-0.02408093621993319</v>
+      </c>
+      <c r="F71">
+        <v>-0.02942556222571544</v>
+      </c>
+      <c r="G71">
+        <v>-0.05930748370260235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0626775764346986</v>
+        <v>0.08525702370288812</v>
       </c>
       <c r="C72">
-        <v>-0.06780019625521846</v>
+        <v>0.06426866164273187</v>
       </c>
       <c r="D72">
-        <v>-0.03533261797504311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006786805889589452</v>
+      </c>
+      <c r="E72">
+        <v>-0.009899229985165018</v>
+      </c>
+      <c r="F72">
+        <v>0.02945087246013382</v>
+      </c>
+      <c r="G72">
+        <v>-0.08258883047898025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4235959689646615</v>
+        <v>0.3701111671231846</v>
       </c>
       <c r="C73">
-        <v>-0.1923884029754606</v>
+        <v>0.1109403926068291</v>
       </c>
       <c r="D73">
-        <v>-0.10753896869502</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02952535726317542</v>
+      </c>
+      <c r="E73">
+        <v>-0.2466824185988817</v>
+      </c>
+      <c r="F73">
+        <v>0.5325833244695251</v>
+      </c>
+      <c r="G73">
+        <v>0.3285219705449667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09409065194821173</v>
+        <v>0.1061394056835386</v>
       </c>
       <c r="C74">
-        <v>-0.1076218466033737</v>
+        <v>0.1055468727695141</v>
       </c>
       <c r="D74">
-        <v>-0.0633317480332292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009315836209978381</v>
+      </c>
+      <c r="E74">
+        <v>0.008128181911217447</v>
+      </c>
+      <c r="F74">
+        <v>-0.05549872984913026</v>
+      </c>
+      <c r="G74">
+        <v>-0.07688783026318055</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2172923293928807</v>
+        <v>0.2492962156193369</v>
       </c>
       <c r="C75">
-        <v>-0.1644259087871863</v>
+        <v>0.1469694991810143</v>
       </c>
       <c r="D75">
-        <v>-0.07569183936699853</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03220235020781995</v>
+      </c>
+      <c r="E75">
+        <v>0.09522351772547102</v>
+      </c>
+      <c r="F75">
+        <v>-0.1330888210494071</v>
+      </c>
+      <c r="G75">
+        <v>-0.01934893298969518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1066029769822067</v>
+        <v>0.1176973803677993</v>
       </c>
       <c r="C76">
-        <v>-0.1135991317619848</v>
+        <v>0.1062966455161046</v>
       </c>
       <c r="D76">
-        <v>-0.05729247756661071</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01800541515384019</v>
+      </c>
+      <c r="E76">
+        <v>0.03892571538531268</v>
+      </c>
+      <c r="F76">
+        <v>-0.07986554816358811</v>
+      </c>
+      <c r="G76">
+        <v>-0.07050623383436391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04691106795276796</v>
+        <v>0.06856415210728488</v>
       </c>
       <c r="C77">
-        <v>-0.05080104824376683</v>
+        <v>0.04872019117354977</v>
       </c>
       <c r="D77">
-        <v>-0.0445709737987901</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01197529362233074</v>
+      </c>
+      <c r="E77">
+        <v>-0.06637468086158203</v>
+      </c>
+      <c r="F77">
+        <v>-0.001928188146885159</v>
+      </c>
+      <c r="G77">
+        <v>-0.08221550458485063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04034829715444053</v>
+        <v>0.03903712362388402</v>
       </c>
       <c r="C78">
-        <v>-0.04832048213417652</v>
+        <v>0.0502985635926856</v>
       </c>
       <c r="D78">
-        <v>-0.03739015341827959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.008607869192256753</v>
+      </c>
+      <c r="E78">
+        <v>-0.05056552156359075</v>
+      </c>
+      <c r="F78">
+        <v>0.02701986843207509</v>
+      </c>
+      <c r="G78">
+        <v>-0.09818903149813261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001764538006568136</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0011145524471109</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0008319312389431183</v>
+      </c>
+      <c r="E79">
+        <v>-0.007415985184979106</v>
+      </c>
+      <c r="F79">
+        <v>-0.0008227908319148736</v>
+      </c>
+      <c r="G79">
+        <v>-0.006743871228046608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04649287658195549</v>
+        <v>0.04093454406582846</v>
       </c>
       <c r="C80">
-        <v>-0.05308792892033719</v>
+        <v>0.04729774007835465</v>
       </c>
       <c r="D80">
-        <v>-0.0509178285502213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.014894282688968</v>
+      </c>
+      <c r="E80">
+        <v>-0.03891560238460177</v>
+      </c>
+      <c r="F80">
+        <v>-0.002467761636236089</v>
+      </c>
+      <c r="G80">
+        <v>-0.05814660418292159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1183946765701043</v>
+        <v>0.1392144299932045</v>
       </c>
       <c r="C81">
-        <v>-0.08978073609606156</v>
+        <v>0.09048410163843169</v>
       </c>
       <c r="D81">
-        <v>-0.0415981635175716</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01569215259739941</v>
+      </c>
+      <c r="E81">
+        <v>0.05826078971540689</v>
+      </c>
+      <c r="F81">
+        <v>-0.1046489144862086</v>
+      </c>
+      <c r="G81">
+        <v>-0.0376588117145337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.03796382194985046</v>
+        <v>0.1649703547031058</v>
       </c>
       <c r="C82">
-        <v>-0.02849614514512036</v>
+        <v>0.1118716041375411</v>
       </c>
       <c r="D82">
-        <v>-0.01551122187449692</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01674290080497779</v>
+      </c>
+      <c r="E82">
+        <v>0.164463075699522</v>
+      </c>
+      <c r="F82">
+        <v>-0.05109096712892536</v>
+      </c>
+      <c r="G82">
+        <v>-0.01400754262694587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02072522192625073</v>
+        <v>0.03309320424126223</v>
       </c>
       <c r="C83">
-        <v>-0.01471891357371216</v>
+        <v>0.0295315272200322</v>
       </c>
       <c r="D83">
-        <v>-0.01414488593832805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007789933686757924</v>
+      </c>
+      <c r="E83">
+        <v>-0.04150854606118912</v>
+      </c>
+      <c r="F83">
+        <v>0.02954912559740746</v>
+      </c>
+      <c r="G83">
+        <v>-0.05375997630985026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2122572181245011</v>
+        <v>0.2105538684939069</v>
       </c>
       <c r="C85">
-        <v>-0.1752665469859386</v>
+        <v>0.140832828318268</v>
       </c>
       <c r="D85">
-        <v>-0.1006529104224938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01810202764116332</v>
+      </c>
+      <c r="E85">
+        <v>0.1054840775994874</v>
+      </c>
+      <c r="F85">
+        <v>-0.06533139549850975</v>
+      </c>
+      <c r="G85">
+        <v>0.01878447681506158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007637029341093519</v>
+        <v>0.01134941515195969</v>
       </c>
       <c r="C86">
-        <v>-0.01607455000613443</v>
+        <v>0.023822734861551</v>
       </c>
       <c r="D86">
-        <v>-0.02020098673211891</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01384148595397839</v>
+      </c>
+      <c r="E86">
+        <v>-0.07315039718758602</v>
+      </c>
+      <c r="F86">
+        <v>0.02064850142569576</v>
+      </c>
+      <c r="G86">
+        <v>-0.1711587282829883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006265273937634542</v>
+        <v>0.02051253840466951</v>
       </c>
       <c r="C87">
-        <v>-0.009431563825885954</v>
+        <v>0.01474630542785656</v>
       </c>
       <c r="D87">
-        <v>-0.01711103292338499</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01410609293869039</v>
+      </c>
+      <c r="E87">
+        <v>-0.1013008295512455</v>
+      </c>
+      <c r="F87">
+        <v>-0.02345995990321876</v>
+      </c>
+      <c r="G87">
+        <v>-0.1113740009012129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.07767338437494403</v>
+        <v>0.09080343703951875</v>
       </c>
       <c r="C88">
-        <v>-0.0368305647525646</v>
+        <v>0.06595109518006569</v>
       </c>
       <c r="D88">
-        <v>-0.04667260125316314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0229709472054625</v>
+      </c>
+      <c r="E88">
+        <v>-0.006108509153451655</v>
+      </c>
+      <c r="F88">
+        <v>-0.01603810607974997</v>
+      </c>
+      <c r="G88">
+        <v>-0.1098818320530222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2657978362529986</v>
+        <v>0.2256104696437214</v>
       </c>
       <c r="C89">
-        <v>0.2472512204871332</v>
+        <v>-0.3708757901731455</v>
       </c>
       <c r="D89">
-        <v>0.246358617726571</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004424152718627876</v>
+      </c>
+      <c r="E89">
+        <v>0.02636759168795574</v>
+      </c>
+      <c r="F89">
+        <v>-0.01660036261805673</v>
+      </c>
+      <c r="G89">
+        <v>-0.07949693775386835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2311024275533949</v>
+        <v>0.2061412246362457</v>
       </c>
       <c r="C90">
-        <v>0.2194728683737582</v>
+        <v>-0.3185353219160225</v>
       </c>
       <c r="D90">
-        <v>0.2235176903452296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005023572855914075</v>
+      </c>
+      <c r="E90">
+        <v>0.01557945659084098</v>
+      </c>
+      <c r="F90">
+        <v>-0.05095535378114393</v>
+      </c>
+      <c r="G90">
+        <v>-0.04557547190679564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.171697118919709</v>
+        <v>0.1868883581976706</v>
       </c>
       <c r="C91">
-        <v>-0.1189535469153889</v>
+        <v>0.133472390250816</v>
       </c>
       <c r="D91">
-        <v>-0.04781375697692984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02307884916525262</v>
+      </c>
+      <c r="E91">
+        <v>0.07771452427973946</v>
+      </c>
+      <c r="F91">
+        <v>-0.1032871734368215</v>
+      </c>
+      <c r="G91">
+        <v>-0.04709794216371191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2195236475191936</v>
+        <v>0.1912729322331749</v>
       </c>
       <c r="C92">
-        <v>0.1373418763110161</v>
+        <v>-0.2623139203143829</v>
       </c>
       <c r="D92">
-        <v>0.1974141716961504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03821314250668965</v>
+      </c>
+      <c r="E92">
+        <v>-0.02239856464351657</v>
+      </c>
+      <c r="F92">
+        <v>-0.05173161280350282</v>
+      </c>
+      <c r="G92">
+        <v>-0.09251790947328548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2489603213221405</v>
+        <v>0.228831914361609</v>
       </c>
       <c r="C93">
-        <v>0.1971317596189753</v>
+        <v>-0.3157259217208325</v>
       </c>
       <c r="D93">
-        <v>0.2150981228201784</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01067013807964162</v>
+      </c>
+      <c r="E93">
+        <v>-0.001283056418946653</v>
+      </c>
+      <c r="F93">
+        <v>-0.03786555734585328</v>
+      </c>
+      <c r="G93">
+        <v>-0.05975516496501386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2265809686035279</v>
+        <v>0.3321355856788736</v>
       </c>
       <c r="C94">
-        <v>-0.1456124351734962</v>
+        <v>0.2059883953059537</v>
       </c>
       <c r="D94">
-        <v>-0.08501393422188588</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02792284663824171</v>
+      </c>
+      <c r="E94">
+        <v>0.371091418585182</v>
+      </c>
+      <c r="F94">
+        <v>-0.4117396787035003</v>
+      </c>
+      <c r="G94">
+        <v>0.358189760211521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.06635220352816537</v>
+        <v>0.0909730883512969</v>
       </c>
       <c r="C95">
-        <v>-0.1098153010047804</v>
+        <v>0.07303784966598083</v>
       </c>
       <c r="D95">
-        <v>-0.07256552052538326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007251670972306708</v>
+      </c>
+      <c r="E95">
+        <v>-0.1224462261181929</v>
+      </c>
+      <c r="F95">
+        <v>0.1563307144276366</v>
+      </c>
+      <c r="G95">
+        <v>-0.06973628739307655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2068263346764214</v>
+        <v>0.1928843330390669</v>
       </c>
       <c r="C98">
-        <v>-0.08984531105144597</v>
+        <v>0.04859807578835397</v>
       </c>
       <c r="D98">
-        <v>-0.01594630388691109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009775903870856112</v>
+      </c>
+      <c r="E98">
+        <v>-0.1274538286025403</v>
+      </c>
+      <c r="F98">
+        <v>0.1998984926526237</v>
+      </c>
+      <c r="G98">
+        <v>0.0691419883749735</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006479324167914705</v>
+        <v>0.007886556296419383</v>
       </c>
       <c r="C101">
-        <v>-0.009796378971825332</v>
+        <v>0.02092842287506782</v>
       </c>
       <c r="D101">
-        <v>-0.01623885869222739</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01008534193198829</v>
+      </c>
+      <c r="E101">
+        <v>-0.01182976805099724</v>
+      </c>
+      <c r="F101">
+        <v>-0.01096868400805445</v>
+      </c>
+      <c r="G101">
+        <v>-0.1060763077030659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1064990350949053</v>
+        <v>0.1212137651761953</v>
       </c>
       <c r="C102">
-        <v>-0.07522607242469873</v>
+        <v>0.0884500513961566</v>
       </c>
       <c r="D102">
-        <v>-0.05111122093334822</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0001781168804801541</v>
+      </c>
+      <c r="E102">
+        <v>0.04334208863464795</v>
+      </c>
+      <c r="F102">
+        <v>-0.01844918971995006</v>
+      </c>
+      <c r="G102">
+        <v>-0.01636313490174183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1417560310405657</v>
+        <v>0.02073054417039276</v>
       </c>
       <c r="C104">
-        <v>0.6480444335353791</v>
+        <v>-0.02868320168571456</v>
       </c>
       <c r="D104">
-        <v>-0.7365608149457997</v>
+        <v>-0.9863408434950056</v>
+      </c>
+      <c r="E104">
+        <v>0.08351618030817165</v>
+      </c>
+      <c r="F104">
+        <v>-0.0225677662626247</v>
+      </c>
+      <c r="G104">
+        <v>0.03780584066671992</v>
       </c>
     </row>
   </sheetData>
